--- a/Пересчет.xlsx
+++ b/Пересчет.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E31"/>
+  <dimension ref="C2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +375,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -386,7 +386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>185</v>
       </c>
@@ -397,8 +397,11 @@
         <f>D3/C3</f>
         <v>2.8378378378378377</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>6</v>
       </c>
@@ -410,7 +413,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>8</v>
       </c>
@@ -422,7 +425,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>70</v>
       </c>
@@ -434,7 +437,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>63</v>
       </c>
@@ -446,7 +449,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>10</v>
       </c>
@@ -458,7 +461,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>15</v>
       </c>
@@ -470,97 +473,127 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>40</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113.51351351351352</v>
       </c>
       <c r="E10">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>50</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141.89189189189187</v>
       </c>
       <c r="E11">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.189189189189189</v>
       </c>
       <c r="E12">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>20</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.756756756756758</v>
       </c>
       <c r="E13">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>185</v>
+      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="E14">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>67</v>
+      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190.13513513513513</v>
       </c>
       <c r="E15">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>23</v>
+      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65.270270270270274</v>
       </c>
       <c r="E16">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>65</v>
+      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184.45945945945945</v>
       </c>
       <c r="E17">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>53</v>
+      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150.40540540540539</v>
       </c>
       <c r="E18">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>7</v>
+      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.864864864864863</v>
       </c>
       <c r="E19">
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -569,7 +602,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -578,7 +611,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -587,7 +620,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -596,7 +629,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -605,7 +638,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -614,7 +647,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -623,7 +656,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -632,7 +665,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -641,7 +674,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -650,7 +683,7 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -659,13 +692,19 @@
         <v>2.8378378378378377</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
         <v>2.8378378378378377</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>14*8</f>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
